--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B413088-CCAA-466D-80CD-AFCE31D0B284}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298DDDC-8CD6-4307-A64C-6425A0CBC1F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>what</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>Produced written report for National Human Rights Commission of Korea.</t>
+  </si>
+  <si>
+    <t>RStudio</t>
+  </si>
+  <si>
+    <t>May. 2020 - Aug. 2020</t>
+  </si>
+  <si>
+    <t>Summer Intern</t>
+  </si>
+  <si>
+    <t>Will work on accessibility improvement projects for Rstudio IDE and other Rstudio products.</t>
+  </si>
+  <si>
+    <t>Redmond, WA</t>
+  </si>
+  <si>
+    <t>Officially being offered summer intern position.</t>
   </si>
 </sst>
 </file>
@@ -388,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,50 +431,72 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298DDDC-8CD6-4307-A64C-6425A0CBC1F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336F424-9B0A-4E5D-87CE-88A91BABBF6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>May. 2020 - Aug. 2020</t>
   </si>
   <si>
-    <t>Summer Intern</t>
-  </si>
-  <si>
     <t>Will work on accessibility improvement projects for Rstudio IDE and other Rstudio products.</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Officially being offered summer intern position.</t>
+  </si>
+  <si>
+    <t>Software Engineer Intern for Accessibility</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -440,15 +440,15 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336F424-9B0A-4E5D-87CE-88A91BABBF6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C11C2-B907-49B9-B8A5-E864FC5BDECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,22 +73,22 @@
     <t>Produced written report for National Human Rights Commission of Korea.</t>
   </si>
   <si>
-    <t>RStudio</t>
-  </si>
-  <si>
     <t>May. 2020 - Aug. 2020</t>
   </si>
   <si>
     <t>Will work on accessibility improvement projects for Rstudio IDE and other Rstudio products.</t>
   </si>
   <si>
-    <t>Redmond, WA</t>
-  </si>
-  <si>
     <t>Officially being offered summer intern position.</t>
   </si>
   <si>
     <t>Software Engineer Intern for Accessibility</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Rstudio PBC</t>
   </si>
 </sst>
 </file>
@@ -431,24 +431,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C11C2-B907-49B9-B8A5-E864FC5BDECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2679C1C8-2F55-4090-BF54-EF82F75F633F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>May. 2020 - Aug. 2020</t>
   </si>
   <si>
-    <t>Will work on accessibility improvement projects for Rstudio IDE and other Rstudio products.</t>
-  </si>
-  <si>
     <t>Officially being offered summer intern position.</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Rstudio PBC</t>
+  </si>
+  <si>
+    <t>Will work on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., shiny).</t>
   </si>
 </sst>
 </file>
@@ -431,24 +431,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2679C1C8-2F55-4090-BF54-EF82F75F633F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B6C62D-7F5B-4FE0-816C-F1CBE6B8EB5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>what</t>
   </si>
@@ -76,9 +76,6 @@
     <t>May. 2020 - Aug. 2020</t>
   </si>
   <si>
-    <t>Officially being offered summer intern position.</t>
-  </si>
-  <si>
     <t>Software Engineer Intern for Accessibility</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>Rstudio PBC</t>
   </si>
   <si>
-    <t>Will work on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., shiny).</t>
+    <t>Working on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., rmarkdown; RStudio Connect; shiny).</t>
   </si>
 </sst>
 </file>
@@ -406,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,72 +428,67 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B6C62D-7F5B-4FE0-816C-F1CBE6B8EB5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DFA6C-7BC1-4E02-BABF-D54D6E83DCF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>what</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Working on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., rmarkdown; RStudio Connect; shiny).</t>
+  </si>
+  <si>
+    <t>Developing JS and R code patches for keyboard and assistive technology UX improvements.</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,51 +447,56 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DFA6C-7BC1-4E02-BABF-D54D6E83DCF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4A677-8A4B-4F0E-BF4B-5944484F16FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,10 @@
     <t>Rstudio PBC</t>
   </si>
   <si>
-    <t>Working on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., rmarkdown; RStudio Connect; shiny).</t>
-  </si>
-  <si>
-    <t>Developing JS and R code patches for keyboard and assistive technology UX improvements.</t>
+    <t>Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., rmarkdown; RStudio Connect; shiny).</t>
+  </si>
+  <si>
+    <t>Developed JS and R code patches for keyboard and assistive technology UX improvements.</t>
   </si>
 </sst>
 </file>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4A677-8A4B-4F0E-BF4B-5944484F16FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A9B37B-6FB7-4B16-B9CA-CD81661FB945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>what</t>
   </si>
@@ -85,10 +85,49 @@
     <t>Rstudio PBC</t>
   </si>
   <si>
-    <t>Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., rmarkdown; RStudio Connect; shiny).</t>
-  </si>
-  <si>
-    <t>Developed JS and R code patches for keyboard and assistive technology UX improvements.</t>
+    <t>Patched Shiny's undlying bootstrap library to improve accessible navigation of shiny apps globally for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR #2911)}</t>
+  </si>
+  <si>
+    <t>Made selectInput widget accessible by patching selectize-a11y-plugin JS library. \href{https://github.com/rstudio/shiny/pull/2993}{(Shiny PR #2993)}</t>
+  </si>
+  <si>
+    <t>Developed a way to pass dynamic alt attribute for reactive plot objects. \href{https://github.com/rstudio/shiny/pull/3006}{(Shiny PR #3006)}</t>
+  </si>
+  <si>
+    <t>Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, Shiny and Rmarkdown.</t>
+  </si>
+  <si>
+    <t>Made `fontawesome` and `glyphicon` icons read by assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR #2917)}</t>
+  </si>
+  <si>
+    <t>Made dateInput and dateRangeInput widgets accessible for screen readers. \href{https://github.com/rstudio/shiny/pull/2978}{(Shiny PR #2978)}</t>
+  </si>
+  <si>
+    <t>Fixed keyboard accessibility for file picker button. \href{https://github.com/rstudio/shiny/pull/2937}{(Shiny PR #2937)}</t>
+  </si>
+  <si>
+    <t>Added semantic landmarks for main and sidebarPanels via aria roles. \href{https://github.com/rstudio/shiny/pull/3009}{(Shiny PR #3009)}</t>
+  </si>
+  <si>
+    <t>Made dynamic output objects to be announced to assistive technologies in real time via aria-live. \href{https://github.com/rstudio/shiny/pull/3002}{(Shiny PR #3002)}</t>
+  </si>
+  <si>
+    <t>Developed a way to pass document-level lang attribute to Shiny apps. \href{https://github.com/rstudio/shiny/pull/2920}{(Shiny PR #2920)}</t>
+  </si>
+  <si>
+    <t>Developed JS code to resolve accessibility issue in highlighted code blocks of HTML output produced by Pandoc for screen reader users. \href{https://github.com/rstudio/rmarkdown/pull/1833}{(Rmarkdown PR #1833)}</t>
+  </si>
+  <si>
+    <t>Added the customizable lang attribute to ioslides_presentation output. \href{https://github.com/rstudio/rmarkdown/pull/1841}{(Rmarkdown PR #1841)}</t>
+  </si>
+  <si>
+    <t>Added the number_sections argument to the word_document() output format. \href{https://github.com/rstudio/rmarkdown/pull/1869}{(Rmarkdown PR #1869)}</t>
+  </si>
+  <si>
+    <t>Authored technical document on \href{https://support.rstudio.com/hc/en-us/articles/360049776974-Using-RStudio-Server-in-Windows-WSL2}{how to run RStudio Server via Windows Subsystem for Linux.}</t>
+  </si>
+  <si>
+    <t>Authored technical document on \href{https://support.rstudio.com/hc/en-us/articles/360045612413-RStudio-Screen-Reader-Support}{RStudio Screen Reader Support.}</t>
   </si>
 </sst>
 </file>
@@ -406,9 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -443,60 +484,125 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A9B37B-6FB7-4B16-B9CA-CD81661FB945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA513A0-7248-4132-8189-856B20FEB8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Co-Founder and Project Manager</t>
   </si>
   <si>
-    <t>Applied for and received a $30,000 fund from the city of Seoul.</t>
-  </si>
-  <si>
     <t>Intern</t>
   </si>
   <si>
@@ -76,58 +73,61 @@
     <t>May. 2020 - Aug. 2020</t>
   </si>
   <si>
-    <t>Software Engineer Intern for Accessibility</t>
-  </si>
-  <si>
     <t>Boston, MA</t>
   </si>
   <si>
     <t>Rstudio PBC</t>
   </si>
   <si>
-    <t>Patched Shiny's undlying bootstrap library to improve accessible navigation of shiny apps globally for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR #2911)}</t>
-  </si>
-  <si>
-    <t>Made selectInput widget accessible by patching selectize-a11y-plugin JS library. \href{https://github.com/rstudio/shiny/pull/2993}{(Shiny PR #2993)}</t>
-  </si>
-  <si>
-    <t>Developed a way to pass dynamic alt attribute for reactive plot objects. \href{https://github.com/rstudio/shiny/pull/3006}{(Shiny PR #3006)}</t>
-  </si>
-  <si>
     <t>Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, Shiny and Rmarkdown.</t>
   </si>
   <si>
-    <t>Made `fontawesome` and `glyphicon` icons read by assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR #2917)}</t>
-  </si>
-  <si>
-    <t>Made dateInput and dateRangeInput widgets accessible for screen readers. \href{https://github.com/rstudio/shiny/pull/2978}{(Shiny PR #2978)}</t>
-  </si>
-  <si>
-    <t>Fixed keyboard accessibility for file picker button. \href{https://github.com/rstudio/shiny/pull/2937}{(Shiny PR #2937)}</t>
-  </si>
-  <si>
-    <t>Added semantic landmarks for main and sidebarPanels via aria roles. \href{https://github.com/rstudio/shiny/pull/3009}{(Shiny PR #3009)}</t>
-  </si>
-  <si>
-    <t>Made dynamic output objects to be announced to assistive technologies in real time via aria-live. \href{https://github.com/rstudio/shiny/pull/3002}{(Shiny PR #3002)}</t>
-  </si>
-  <si>
-    <t>Developed a way to pass document-level lang attribute to Shiny apps. \href{https://github.com/rstudio/shiny/pull/2920}{(Shiny PR #2920)}</t>
-  </si>
-  <si>
-    <t>Developed JS code to resolve accessibility issue in highlighted code blocks of HTML output produced by Pandoc for screen reader users. \href{https://github.com/rstudio/rmarkdown/pull/1833}{(Rmarkdown PR #1833)}</t>
-  </si>
-  <si>
-    <t>Added the customizable lang attribute to ioslides_presentation output. \href{https://github.com/rstudio/rmarkdown/pull/1841}{(Rmarkdown PR #1841)}</t>
-  </si>
-  <si>
-    <t>Added the number_sections argument to the word_document() output format. \href{https://github.com/rstudio/rmarkdown/pull/1869}{(Rmarkdown PR #1869)}</t>
-  </si>
-  <si>
     <t>Authored technical document on \href{https://support.rstudio.com/hc/en-us/articles/360049776974-Using-RStudio-Server-in-Windows-WSL2}{how to run RStudio Server via Windows Subsystem for Linux.}</t>
   </si>
   <si>
     <t>Authored technical document on \href{https://support.rstudio.com/hc/en-us/articles/360045612413-RStudio-Screen-Reader-Support}{RStudio Screen Reader Support.}</t>
+  </si>
+  <si>
+    <t>Patched Shiny's undlying bootstrap library to improve accessible navigation of shiny apps globally for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR \#2911)}</t>
+  </si>
+  <si>
+    <t>Made selectInput widget accessible by patching selectize-a11y-plugin JS library. \href{https://github.com/rstudio/shiny/pull/2993}{(Shiny PR \#2993)}</t>
+  </si>
+  <si>
+    <t>Developed a way to pass dynamic alt attribute for reactive plot objects. \href{https://github.com/rstudio/shiny/pull/3006}{(Shiny PR \#3006)}</t>
+  </si>
+  <si>
+    <t>Made dateInput and dateRangeInput widgets accessible for screen readers. \href{https://github.com/rstudio/shiny/pull/2978}{(Shiny PR \#2978)}</t>
+  </si>
+  <si>
+    <t>Fixed keyboard accessibility for file picker button. \href{https://github.com/rstudio/shiny/pull/2937}{(Shiny PR \#2937)}</t>
+  </si>
+  <si>
+    <t>Added semantic landmarks for main and sidebarPanels via aria roles. \href{https://github.com/rstudio/shiny/pull/3009}{(Shiny PR \#3009)}</t>
+  </si>
+  <si>
+    <t>Developed a way to pass document-level lang attribute to Shiny apps. \href{https://github.com/rstudio/shiny/pull/2920}{(Shiny PR \#2920)}</t>
+  </si>
+  <si>
+    <t>Developed JS code to resolve accessibility issue in highlighted code blocks of HTML output produced by Pandoc for screen reader users. \href{https://github.com/rstudio/rmarkdown/pull/1833}{(Rmarkdown PR \#1833)}</t>
+  </si>
+  <si>
+    <t>Applied for and received a 30,000 fund from the city of Seoul.</t>
+  </si>
+  <si>
+    <t>Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>Added the number\_sections argument to the word\_document() output format. \href{https://github.com/rstudio/rmarkdown/pull/1869}{(Rmarkdown PR \#1869)}</t>
+  </si>
+  <si>
+    <t>Made fontawesome and glyphicon icons read by assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
+  </si>
+  <si>
+    <t>Added the customizable lang attribute to ioslides\_presentation output. \href{https://github.com/rstudio/rmarkdown/pull/1841}{(Rmarkdown PR \#1841)}</t>
+  </si>
+  <si>
+    <t>Made dynamic output objects accessible to be announced to assistive technologies in real time via aria-live. \href{https://github.com/rstudio/shiny/pull/3002}{(Shiny PR \#3002)}</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -472,89 +472,89 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
@@ -576,34 +576,34 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA513A0-7248-4132-8189-856B20FEB8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5D193-8970-4B26-A36F-4571F31AE2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,13 +121,13 @@
     <t>Added the number\_sections argument to the word\_document() output format. \href{https://github.com/rstudio/rmarkdown/pull/1869}{(Rmarkdown PR \#1869)}</t>
   </si>
   <si>
-    <t>Made fontawesome and glyphicon icons read by assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
-  </si>
-  <si>
     <t>Added the customizable lang attribute to ioslides\_presentation output. \href{https://github.com/rstudio/rmarkdown/pull/1841}{(Rmarkdown PR \#1841)}</t>
   </si>
   <si>
     <t>Made dynamic output objects accessible to be announced to assistive technologies in real time via aria-live. \href{https://github.com/rstudio/shiny/pull/3002}{(Shiny PR \#3002)}</t>
+  </si>
+  <si>
+    <t>Made fontawesome and glyphicon readable by assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
@@ -524,7 +524,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
@@ -539,7 +539,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5D193-8970-4B26-A36F-4571F31AE2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D0E35D-263F-4634-BC5E-727549717613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Authored technical document on \href{https://support.rstudio.com/hc/en-us/articles/360045612413-RStudio-Screen-Reader-Support}{RStudio Screen Reader Support.}</t>
   </si>
   <si>
-    <t>Patched Shiny's undlying bootstrap library to improve accessible navigation of shiny apps globally for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR \#2911)}</t>
-  </si>
-  <si>
     <t>Made selectInput widget accessible by patching selectize-a11y-plugin JS library. \href{https://github.com/rstudio/shiny/pull/2993}{(Shiny PR \#2993)}</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Made fontawesome and glyphicon readable by assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
+  </si>
+  <si>
+    <t>Patched Shiny's bootstrap dependencies to improve navigation of Shiny apps for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR \#2911)}</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -489,62 +489,62 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
@@ -576,7 +576,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D0E35D-263F-4634-BC5E-727549717613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A60FB8-256C-4246-B6C4-1503A2FDD50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,10 +124,10 @@
     <t>Made dynamic output objects accessible to be announced to assistive technologies in real time via aria-live. \href{https://github.com/rstudio/shiny/pull/3002}{(Shiny PR \#3002)}</t>
   </si>
   <si>
-    <t>Made fontawesome and glyphicon readable by assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
-  </si>
-  <si>
     <t>Patched Shiny's bootstrap dependencies to improve navigation of Shiny apps for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR \#2911)}</t>
+  </si>
+  <si>
+    <t>Made fontawesome and glyphicon readable to assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
@@ -504,7 +504,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A60FB8-256C-4246-B6C4-1503A2FDD50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89309D8C-31F2-4A81-83BA-3CBB728EFA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Developed JS code to resolve accessibility issue in highlighted code blocks of HTML output produced by Pandoc for screen reader users. \href{https://github.com/rstudio/rmarkdown/pull/1833}{(Rmarkdown PR \#1833)}</t>
   </si>
   <si>
-    <t>Applied for and received a 30,000 fund from the city of Seoul.</t>
-  </si>
-  <si>
     <t>Software Engineer Intern</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Made fontawesome and glyphicon readable to assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
+  </si>
+  <si>
+    <t>Applied for and received a \$30,000 fund from the city of Seoul.</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
@@ -504,7 +504,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
@@ -524,7 +524,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
@@ -539,12 +539,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
@@ -576,7 +576,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89309D8C-31F2-4A81-83BA-3CBB728EFA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE50B39A-4FBD-4B77-BAEF-F5A0DE9BFCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,6 @@
     <t>May. 2010 - Nov. 2010</t>
   </si>
   <si>
-    <t>Investigated illegal cases of discrimination against the disabled with regard to voting.</t>
-  </si>
-  <si>
-    <t>Interviewed the disabled who had experienced discrimination against their voting rights.</t>
-  </si>
-  <si>
     <t>Produced written report for National Human Rights Commission of Korea.</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Applied for and received a \$30,000 fund from the city of Seoul.</t>
+  </si>
+  <si>
+    <t>Interviewed people with disabilities who had experienced discrimination against their voting rights.</t>
+  </si>
+  <si>
+    <t>Investigated illegal cases of discrimination against people with disabilities for voting.</t>
   </si>
 </sst>
 </file>
@@ -447,9 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -472,89 +470,89 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
@@ -576,7 +574,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
@@ -593,17 +591,17 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E20" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE50B39A-4FBD-4B77-BAEF-F5A0DE9BFCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC5BFF-09AB-471B-B74A-071225C97638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>what</t>
   </si>
@@ -52,18 +52,6 @@
     <t>Co-Founder and Project Manager</t>
   </si>
   <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>National Human Rights Commission of Korea</t>
-  </si>
-  <si>
-    <t>May. 2010 - Nov. 2010</t>
-  </si>
-  <si>
-    <t>Produced written report for National Human Rights Commission of Korea.</t>
-  </si>
-  <si>
     <t>May. 2020 - Aug. 2020</t>
   </si>
   <si>
@@ -76,18 +64,9 @@
     <t>Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, Shiny and Rmarkdown.</t>
   </si>
   <si>
-    <t>Authored technical document on \href{https://support.rstudio.com/hc/en-us/articles/360049776974-Using-RStudio-Server-in-Windows-WSL2}{how to run RStudio Server via Windows Subsystem for Linux.}</t>
-  </si>
-  <si>
-    <t>Authored technical document on \href{https://support.rstudio.com/hc/en-us/articles/360045612413-RStudio-Screen-Reader-Support}{RStudio Screen Reader Support.}</t>
-  </si>
-  <si>
     <t>Made selectInput widget accessible by patching selectize-a11y-plugin JS library. \href{https://github.com/rstudio/shiny/pull/2993}{(Shiny PR \#2993)}</t>
   </si>
   <si>
-    <t>Developed a way to pass dynamic alt attribute for reactive plot objects. \href{https://github.com/rstudio/shiny/pull/3006}{(Shiny PR \#3006)}</t>
-  </si>
-  <si>
     <t>Made dateInput and dateRangeInput widgets accessible for screen readers. \href{https://github.com/rstudio/shiny/pull/2978}{(Shiny PR \#2978)}</t>
   </si>
   <si>
@@ -118,16 +97,19 @@
     <t>Patched Shiny's bootstrap dependencies to improve navigation of Shiny apps for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR \#2911)}</t>
   </si>
   <si>
-    <t>Made fontawesome and glyphicon readable to assistive technologies. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
-  </si>
-  <si>
     <t>Applied for and received a \$30,000 fund from the city of Seoul.</t>
   </si>
   <si>
-    <t>Interviewed people with disabilities who had experienced discrimination against their voting rights.</t>
-  </si>
-  <si>
-    <t>Investigated illegal cases of discrimination against people with disabilities for voting.</t>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>Made fontawesome and glyphicon readable to assistive technologies in Shiny UI. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
+  </si>
+  <si>
+    <t>Developed a way to pass dynamic alt attribute for reactive plot objects in Shiny UI. \href{https://github.com/rstudio/shiny/pull/3006}{(Shiny PR \#3006)}</t>
+  </si>
+  <si>
+    <t>Authored technical documents on \href{https://support.rstudio.com/hc/en-us/articles/360049776974-Using-RStudio-Server-in-Windows-WSL2}{how to run RStudio Server via Windows Subsystem for Linux} and \href{https://support.rstudio.com/hc/en-us/articles/360045612413-RStudio-Screen-Reader-Support}{RStudio Screen Reader Support.}</t>
   </si>
 </sst>
 </file>
@@ -445,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,141 +449,160 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E5" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E11" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E21" t="s">
-        <v>13</v>
+      <c r="F17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
